--- a/relatorios/repasses_liberados/dentistas/10138046433/2023-08-25_relatorio_repasses_10138046433.xlsx
+++ b/relatorios/repasses_liberados/dentistas/10138046433/2023-08-25_relatorio_repasses_10138046433.xlsx
@@ -6127,7 +6127,7 @@
         <v>0</v>
       </c>
       <c r="M119">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N119">
         <v>0</v>
@@ -7447,7 +7447,7 @@
         <v>0</v>
       </c>
       <c r="M149">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="N149">
         <v>0</v>
@@ -7711,10 +7711,10 @@
         <v>1</v>
       </c>
       <c r="M155">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N155">
-        <v>22.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:14">
@@ -8151,7 +8151,7 @@
         <v>0</v>
       </c>
       <c r="M165">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="N165">
         <v>0</v>
@@ -8239,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="M167">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="N167">
         <v>0</v>
@@ -8635,7 +8635,7 @@
         <v>0</v>
       </c>
       <c r="M176">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N176">
         <v>0</v>
@@ -8767,7 +8767,7 @@
         <v>0</v>
       </c>
       <c r="M179">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N179">
         <v>0</v>
@@ -8855,7 +8855,7 @@
         <v>0</v>
       </c>
       <c r="M181">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N181">
         <v>0</v>
@@ -8987,7 +8987,7 @@
         <v>0</v>
       </c>
       <c r="M184">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N184">
         <v>0</v>
@@ -9031,7 +9031,7 @@
         <v>0</v>
       </c>
       <c r="M185">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N185">
         <v>0</v>
@@ -14487,7 +14487,7 @@
         <v>0</v>
       </c>
       <c r="M309">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N309">
         <v>0</v>
@@ -14531,7 +14531,7 @@
         <v>0</v>
       </c>
       <c r="M310">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N310">
         <v>0</v>
@@ -15499,7 +15499,7 @@
         <v>0</v>
       </c>
       <c r="M332">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N332">
         <v>0</v>
@@ -15543,7 +15543,7 @@
         <v>0</v>
       </c>
       <c r="M333">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N333">
         <v>0</v>
@@ -16027,7 +16027,7 @@
         <v>0</v>
       </c>
       <c r="M344">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N344">
         <v>0</v>
@@ -16115,7 +16115,7 @@
         <v>0</v>
       </c>
       <c r="M346">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N346">
         <v>0</v>
@@ -16159,7 +16159,7 @@
         <v>0</v>
       </c>
       <c r="M347">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N347">
         <v>0</v>
@@ -16203,7 +16203,7 @@
         <v>0</v>
       </c>
       <c r="M348">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N348">
         <v>0</v>
@@ -16907,7 +16907,7 @@
         <v>0</v>
       </c>
       <c r="M364">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N364">
         <v>0</v>
@@ -17083,7 +17083,7 @@
         <v>0</v>
       </c>
       <c r="M368">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N368">
         <v>0</v>
@@ -17127,7 +17127,7 @@
         <v>0</v>
       </c>
       <c r="M369">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N369">
         <v>0</v>
@@ -17171,7 +17171,7 @@
         <v>0</v>
       </c>
       <c r="M370">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N370">
         <v>0</v>
@@ -18051,7 +18051,7 @@
         <v>0</v>
       </c>
       <c r="M390">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N390">
         <v>0</v>
@@ -18095,7 +18095,7 @@
         <v>0</v>
       </c>
       <c r="M391">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N391">
         <v>0</v>

--- a/relatorios/repasses_liberados/dentistas/10138046433/2023-08-25_relatorio_repasses_10138046433.xlsx
+++ b/relatorios/repasses_liberados/dentistas/10138046433/2023-08-25_relatorio_repasses_10138046433.xlsx
@@ -2739,10 +2739,10 @@
         <v>0</v>
       </c>
       <c r="M42">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N42">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43" spans="1:14">
@@ -2827,10 +2827,10 @@
         <v>0</v>
       </c>
       <c r="M44">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N44">
-        <v>16.5</v>
+        <v>12.375</v>
       </c>
     </row>
     <row r="45" spans="1:14">
@@ -2871,10 +2871,10 @@
         <v>0</v>
       </c>
       <c r="M45">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N45">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="46" spans="1:14">
@@ -2915,10 +2915,10 @@
         <v>0</v>
       </c>
       <c r="M46">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N46">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="47" spans="1:14">
@@ -2959,10 +2959,10 @@
         <v>0</v>
       </c>
       <c r="M47">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N47">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="48" spans="1:14">
@@ -3091,10 +3091,10 @@
         <v>0</v>
       </c>
       <c r="M50">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N50">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="51" spans="1:14">
@@ -3135,10 +3135,10 @@
         <v>0</v>
       </c>
       <c r="M51">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N51">
-        <v>8.520000000000001</v>
+        <v>6.39</v>
       </c>
     </row>
     <row r="52" spans="1:14">
@@ -3179,10 +3179,10 @@
         <v>0</v>
       </c>
       <c r="M52">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="N52">
-        <v>1.56</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="53" spans="1:14">
@@ -3223,10 +3223,10 @@
         <v>0</v>
       </c>
       <c r="M53">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N53">
-        <v>4.08</v>
+        <v>3.06</v>
       </c>
     </row>
     <row r="54" spans="1:14">
@@ -3267,10 +3267,10 @@
         <v>0</v>
       </c>
       <c r="M54">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N54">
-        <v>13</v>
+        <v>9.75</v>
       </c>
     </row>
     <row r="55" spans="1:14">
@@ -3311,10 +3311,10 @@
         <v>0</v>
       </c>
       <c r="M55">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N55">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="56" spans="1:14">
@@ -3355,10 +3355,10 @@
         <v>0</v>
       </c>
       <c r="M56">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N56">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="57" spans="1:14">
@@ -3443,10 +3443,10 @@
         <v>0</v>
       </c>
       <c r="M58">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N58">
-        <v>16.5</v>
+        <v>12.375</v>
       </c>
     </row>
     <row r="59" spans="1:14">
@@ -3487,10 +3487,10 @@
         <v>0</v>
       </c>
       <c r="M59">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N59">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="60" spans="1:14">
@@ -3531,10 +3531,10 @@
         <v>0</v>
       </c>
       <c r="M60">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N60">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="61" spans="1:14">
@@ -3575,10 +3575,10 @@
         <v>0</v>
       </c>
       <c r="M61">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N61">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="62" spans="1:14">
@@ -3619,10 +3619,10 @@
         <v>0</v>
       </c>
       <c r="M62">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N62">
-        <v>18.336</v>
+        <v>13.752</v>
       </c>
     </row>
     <row r="63" spans="1:14">
@@ -3663,10 +3663,10 @@
         <v>0</v>
       </c>
       <c r="M63">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N63">
-        <v>18.336</v>
+        <v>13.752</v>
       </c>
     </row>
     <row r="64" spans="1:14">
@@ -3707,10 +3707,10 @@
         <v>0</v>
       </c>
       <c r="M64">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N64">
-        <v>2.128</v>
+        <v>1.596</v>
       </c>
     </row>
     <row r="65" spans="1:14">
@@ -3751,10 +3751,10 @@
         <v>0</v>
       </c>
       <c r="M65">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N65">
-        <v>2.128</v>
+        <v>1.596</v>
       </c>
     </row>
     <row r="66" spans="1:14">
@@ -3795,10 +3795,10 @@
         <v>0</v>
       </c>
       <c r="M66">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N66">
-        <v>13</v>
+        <v>9.75</v>
       </c>
     </row>
     <row r="67" spans="1:14">
@@ -3839,10 +3839,10 @@
         <v>0</v>
       </c>
       <c r="M67">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N67">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="68" spans="1:14">
@@ -3883,10 +3883,10 @@
         <v>0</v>
       </c>
       <c r="M68">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N68">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="69" spans="1:14">
@@ -3927,10 +3927,10 @@
         <v>0</v>
       </c>
       <c r="M69">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N69">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="70" spans="1:14">
@@ -4015,10 +4015,10 @@
         <v>0</v>
       </c>
       <c r="M71">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N71">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="72" spans="1:14">
@@ -4059,10 +4059,10 @@
         <v>0</v>
       </c>
       <c r="M72">
-        <v>0.4</v>
+        <v>2</v>
       </c>
       <c r="N72">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:14">
@@ -4147,10 +4147,10 @@
         <v>0</v>
       </c>
       <c r="M74">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="N74">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:14">
@@ -4191,10 +4191,10 @@
         <v>0</v>
       </c>
       <c r="M75">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N75">
-        <v>13</v>
+        <v>9.75</v>
       </c>
     </row>
     <row r="76" spans="1:14">
@@ -4235,10 +4235,10 @@
         <v>0</v>
       </c>
       <c r="M76">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N76">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="77" spans="1:14">
@@ -4279,10 +4279,10 @@
         <v>0</v>
       </c>
       <c r="M77">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N77">
-        <v>16.5</v>
+        <v>12.375</v>
       </c>
     </row>
     <row r="78" spans="1:14">
@@ -4323,10 +4323,10 @@
         <v>0</v>
       </c>
       <c r="M78">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N78">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="79" spans="1:14">
@@ -4367,10 +4367,10 @@
         <v>0</v>
       </c>
       <c r="M79">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N79">
-        <v>13</v>
+        <v>9.75</v>
       </c>
     </row>
     <row r="80" spans="1:14">
@@ -4411,10 +4411,10 @@
         <v>0</v>
       </c>
       <c r="M80">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N80">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="81" spans="1:14">
@@ -4499,10 +4499,10 @@
         <v>0</v>
       </c>
       <c r="M82">
-        <v>0.4</v>
+        <v>10</v>
       </c>
       <c r="N82">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="83" spans="1:14">
@@ -4543,10 +4543,10 @@
         <v>0</v>
       </c>
       <c r="M83">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N83">
-        <v>16.048</v>
+        <v>12.036</v>
       </c>
     </row>
     <row r="84" spans="1:14">
@@ -4587,10 +4587,10 @@
         <v>0</v>
       </c>
       <c r="M84">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N84">
-        <v>16.048</v>
+        <v>12.036</v>
       </c>
     </row>
     <row r="85" spans="1:14">
@@ -4631,10 +4631,10 @@
         <v>0</v>
       </c>
       <c r="M85">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N85">
-        <v>2.448</v>
+        <v>1.836</v>
       </c>
     </row>
     <row r="86" spans="1:14">
@@ -4675,10 +4675,10 @@
         <v>0</v>
       </c>
       <c r="M86">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N86">
-        <v>16.5</v>
+        <v>12.375</v>
       </c>
     </row>
     <row r="87" spans="1:14">
@@ -4719,10 +4719,10 @@
         <v>0</v>
       </c>
       <c r="M87">
-        <v>0.4</v>
+        <v>65</v>
       </c>
       <c r="N87">
-        <v>2.64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="88" spans="1:14">
@@ -4763,10 +4763,10 @@
         <v>0</v>
       </c>
       <c r="M88">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="N88">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:14">
@@ -4851,10 +4851,10 @@
         <v>0</v>
       </c>
       <c r="M90">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N90">
-        <v>10.02</v>
+        <v>7.515</v>
       </c>
     </row>
     <row r="91" spans="1:14">
@@ -4895,10 +4895,10 @@
         <v>0</v>
       </c>
       <c r="M91">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N91">
-        <v>10.02</v>
+        <v>7.515</v>
       </c>
     </row>
     <row r="92" spans="1:14">
@@ -5071,10 +5071,10 @@
         <v>0</v>
       </c>
       <c r="M95">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="N95">
-        <v>16.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:14">
@@ -5115,10 +5115,10 @@
         <v>0</v>
       </c>
       <c r="M96">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="N96">
-        <v>2.64</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:14">
@@ -5159,10 +5159,10 @@
         <v>0</v>
       </c>
       <c r="M97">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N97">
-        <v>16.5</v>
+        <v>12.375</v>
       </c>
     </row>
     <row r="98" spans="1:14">
@@ -5203,10 +5203,10 @@
         <v>0</v>
       </c>
       <c r="M98">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N98">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="99" spans="1:14">
@@ -5247,10 +5247,10 @@
         <v>0</v>
       </c>
       <c r="M99">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N99">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="100" spans="1:14">
@@ -5379,10 +5379,10 @@
         <v>0</v>
       </c>
       <c r="M102">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N102">
-        <v>16.5</v>
+        <v>12.375</v>
       </c>
     </row>
     <row r="103" spans="1:14">
@@ -5423,10 +5423,10 @@
         <v>0</v>
       </c>
       <c r="M103">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N103">
-        <v>16.5</v>
+        <v>12.375</v>
       </c>
     </row>
     <row r="104" spans="1:14">
@@ -5467,10 +5467,10 @@
         <v>0</v>
       </c>
       <c r="M104">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N104">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="105" spans="1:14">
@@ -5511,10 +5511,10 @@
         <v>0</v>
       </c>
       <c r="M105">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N105">
-        <v>16.5</v>
+        <v>12.375</v>
       </c>
     </row>
     <row r="106" spans="1:14">
@@ -5555,10 +5555,10 @@
         <v>0</v>
       </c>
       <c r="M106">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N106">
-        <v>16.5</v>
+        <v>12.375</v>
       </c>
     </row>
     <row r="107" spans="1:14">
@@ -5599,10 +5599,10 @@
         <v>0</v>
       </c>
       <c r="M107">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N107">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="108" spans="1:14">
@@ -5643,10 +5643,10 @@
         <v>0</v>
       </c>
       <c r="M108">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N108">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="109" spans="1:14">
@@ -5687,10 +5687,10 @@
         <v>0</v>
       </c>
       <c r="M109">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N109">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="110" spans="1:14">
@@ -5731,10 +5731,10 @@
         <v>0</v>
       </c>
       <c r="M110">
-        <v>0.4</v>
+        <v>65</v>
       </c>
       <c r="N110">
-        <v>13</v>
+        <v>65</v>
       </c>
     </row>
     <row r="111" spans="1:14">
@@ -5775,10 +5775,10 @@
         <v>0</v>
       </c>
       <c r="M111">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="N111">
-        <v>2.64</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:14">
@@ -5819,10 +5819,10 @@
         <v>0</v>
       </c>
       <c r="M112">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="N112">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:14">
@@ -5907,10 +5907,10 @@
         <v>0</v>
       </c>
       <c r="M114">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N114">
-        <v>13</v>
+        <v>9.75</v>
       </c>
     </row>
     <row r="115" spans="1:14">
@@ -6259,7 +6259,7 @@
         <v>0</v>
       </c>
       <c r="M122">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N122">
         <v>0</v>
@@ -6303,7 +6303,7 @@
         <v>0</v>
       </c>
       <c r="M123">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N123">
         <v>0</v>
@@ -6347,7 +6347,7 @@
         <v>0</v>
       </c>
       <c r="M124">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N124">
         <v>0</v>
@@ -6567,7 +6567,7 @@
         <v>0</v>
       </c>
       <c r="M129">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N129">
         <v>0</v>
@@ -6611,7 +6611,7 @@
         <v>0</v>
       </c>
       <c r="M130">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N130">
         <v>0</v>
@@ -6963,7 +6963,7 @@
         <v>0</v>
       </c>
       <c r="M138">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N138">
         <v>0</v>
@@ -7007,7 +7007,7 @@
         <v>0</v>
       </c>
       <c r="M139">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N139">
         <v>0</v>
@@ -7051,7 +7051,7 @@
         <v>0</v>
       </c>
       <c r="M140">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N140">
         <v>0</v>
@@ -7095,7 +7095,7 @@
         <v>0</v>
       </c>
       <c r="M141">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N141">
         <v>0</v>
@@ -7139,7 +7139,7 @@
         <v>0</v>
       </c>
       <c r="M142">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N142">
         <v>0</v>
@@ -7183,7 +7183,7 @@
         <v>0</v>
       </c>
       <c r="M143">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N143">
         <v>0</v>
@@ -7227,7 +7227,7 @@
         <v>0</v>
       </c>
       <c r="M144">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N144">
         <v>0</v>
@@ -7447,7 +7447,7 @@
         <v>0</v>
       </c>
       <c r="M149">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N149">
         <v>0</v>
@@ -7491,7 +7491,7 @@
         <v>0</v>
       </c>
       <c r="M150">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N150">
         <v>0</v>
@@ -7535,7 +7535,7 @@
         <v>0</v>
       </c>
       <c r="M151">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N151">
         <v>0</v>
@@ -7579,7 +7579,7 @@
         <v>0</v>
       </c>
       <c r="M152">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N152">
         <v>0</v>
@@ -7623,7 +7623,7 @@
         <v>0</v>
       </c>
       <c r="M153">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N153">
         <v>0</v>
@@ -7711,10 +7711,10 @@
         <v>1</v>
       </c>
       <c r="M155">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N155">
-        <v>0</v>
+        <v>22.2</v>
       </c>
     </row>
     <row r="156" spans="1:14">
@@ -7799,7 +7799,7 @@
         <v>0</v>
       </c>
       <c r="M157">
-        <v>0.5</v>
+        <v>65</v>
       </c>
       <c r="N157">
         <v>0</v>
@@ -7975,7 +7975,7 @@
         <v>0</v>
       </c>
       <c r="M161">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N161">
         <v>0</v>
@@ -8019,7 +8019,7 @@
         <v>0</v>
       </c>
       <c r="M162">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N162">
         <v>0</v>
@@ -8151,7 +8151,7 @@
         <v>0</v>
       </c>
       <c r="M165">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="N165">
         <v>0</v>
@@ -8195,7 +8195,7 @@
         <v>0</v>
       </c>
       <c r="M166">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N166">
         <v>0</v>
@@ -8239,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="M167">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N167">
         <v>0</v>
@@ -8503,7 +8503,7 @@
         <v>0</v>
       </c>
       <c r="M173">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N173">
         <v>0</v>
@@ -8679,7 +8679,7 @@
         <v>0</v>
       </c>
       <c r="M177">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N177">
         <v>0</v>
@@ -8723,7 +8723,7 @@
         <v>0</v>
       </c>
       <c r="M178">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N178">
         <v>0</v>
@@ -8855,7 +8855,7 @@
         <v>0</v>
       </c>
       <c r="M181">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N181">
         <v>0</v>
@@ -9031,7 +9031,7 @@
         <v>0</v>
       </c>
       <c r="M185">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N185">
         <v>0</v>
@@ -9911,10 +9911,10 @@
         <v>0</v>
       </c>
       <c r="M205">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N205">
-        <v>18.42</v>
+        <v>13.815</v>
       </c>
     </row>
     <row r="206" spans="1:14">
@@ -9955,10 +9955,10 @@
         <v>0</v>
       </c>
       <c r="M206">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N206">
-        <v>7.96</v>
+        <v>5.97</v>
       </c>
     </row>
     <row r="207" spans="1:14">
@@ -9999,10 +9999,10 @@
         <v>0</v>
       </c>
       <c r="M207">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N207">
-        <v>19.736</v>
+        <v>14.802</v>
       </c>
     </row>
     <row r="208" spans="1:14">
@@ -10043,10 +10043,10 @@
         <v>0</v>
       </c>
       <c r="M208">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N208">
-        <v>14.996</v>
+        <v>11.247</v>
       </c>
     </row>
     <row r="209" spans="1:14">
@@ -10087,10 +10087,10 @@
         <v>0</v>
       </c>
       <c r="M209">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N209">
-        <v>8.188000000000001</v>
+        <v>6.140999999999999</v>
       </c>
     </row>
     <row r="210" spans="1:14">
@@ -10131,10 +10131,10 @@
         <v>0</v>
       </c>
       <c r="M210">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N210">
-        <v>12.8</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="211" spans="1:14">
@@ -10175,10 +10175,10 @@
         <v>0</v>
       </c>
       <c r="M211">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N211">
-        <v>12.8</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="212" spans="1:14">
@@ -10219,10 +10219,10 @@
         <v>0</v>
       </c>
       <c r="M212">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N212">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="213" spans="1:14">
@@ -10263,10 +10263,10 @@
         <v>0</v>
       </c>
       <c r="M213">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N213">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="214" spans="1:14">
@@ -10307,10 +10307,10 @@
         <v>0</v>
       </c>
       <c r="M214">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N214">
-        <v>17.764</v>
+        <v>13.323</v>
       </c>
     </row>
     <row r="215" spans="1:14">
@@ -10395,10 +10395,10 @@
         <v>0</v>
       </c>
       <c r="M216">
-        <v>0.4</v>
+        <v>65</v>
       </c>
       <c r="N216">
-        <v>12.8</v>
+        <v>65</v>
       </c>
     </row>
     <row r="217" spans="1:14">
@@ -10439,10 +10439,10 @@
         <v>0</v>
       </c>
       <c r="M217">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="N217">
-        <v>12.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:14">
@@ -10483,10 +10483,10 @@
         <v>0</v>
       </c>
       <c r="M218">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="N218">
-        <v>2.64</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:14">
@@ -10659,10 +10659,10 @@
         <v>0</v>
       </c>
       <c r="M222">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N222">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="223" spans="1:14">
@@ -10703,10 +10703,10 @@
         <v>0</v>
       </c>
       <c r="M223">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N223">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="224" spans="1:14">
@@ -10747,10 +10747,10 @@
         <v>0</v>
       </c>
       <c r="M224">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N224">
-        <v>18.42</v>
+        <v>13.815</v>
       </c>
     </row>
     <row r="225" spans="1:14">
@@ -10791,10 +10791,10 @@
         <v>0</v>
       </c>
       <c r="M225">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N225">
-        <v>2.14</v>
+        <v>1.605</v>
       </c>
     </row>
     <row r="226" spans="1:14">
@@ -10835,10 +10835,10 @@
         <v>0</v>
       </c>
       <c r="M226">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N226">
-        <v>18.42</v>
+        <v>13.815</v>
       </c>
     </row>
     <row r="227" spans="1:14">
@@ -10879,10 +10879,10 @@
         <v>0</v>
       </c>
       <c r="M227">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N227">
-        <v>2.14</v>
+        <v>1.605</v>
       </c>
     </row>
     <row r="228" spans="1:14">
@@ -10923,10 +10923,10 @@
         <v>0</v>
       </c>
       <c r="M228">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N228">
-        <v>12.8</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="229" spans="1:14">
@@ -10967,10 +10967,10 @@
         <v>0</v>
       </c>
       <c r="M229">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="N229">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:14">
@@ -11011,10 +11011,10 @@
         <v>0</v>
       </c>
       <c r="M230">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N230">
-        <v>12.8</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="231" spans="1:14">
@@ -11055,10 +11055,10 @@
         <v>0</v>
       </c>
       <c r="M231">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N231">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="232" spans="1:14">
@@ -11099,10 +11099,10 @@
         <v>0</v>
       </c>
       <c r="M232">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N232">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="233" spans="1:14">
@@ -11143,10 +11143,10 @@
         <v>0</v>
       </c>
       <c r="M233">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N233">
-        <v>12.8</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="234" spans="1:14">
@@ -11187,10 +11187,10 @@
         <v>0</v>
       </c>
       <c r="M234">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N234">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="235" spans="1:14">
@@ -11319,7 +11319,7 @@
         <v>0</v>
       </c>
       <c r="M237">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N237">
         <v>0</v>
@@ -11363,7 +11363,7 @@
         <v>0</v>
       </c>
       <c r="M238">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N238">
         <v>0</v>
@@ -11583,10 +11583,10 @@
         <v>0</v>
       </c>
       <c r="M243">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N243">
-        <v>12.8</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="244" spans="1:14">
@@ -11715,10 +11715,10 @@
         <v>0</v>
       </c>
       <c r="M246">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N246">
-        <v>16.5</v>
+        <v>12.375</v>
       </c>
     </row>
     <row r="247" spans="1:14">
@@ -11759,10 +11759,10 @@
         <v>0</v>
       </c>
       <c r="M247">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N247">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="248" spans="1:14">
@@ -11803,10 +11803,10 @@
         <v>0</v>
       </c>
       <c r="M248">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N248">
-        <v>12.8</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="249" spans="1:14">
@@ -11847,10 +11847,10 @@
         <v>0</v>
       </c>
       <c r="M249">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N249">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="250" spans="1:14">
@@ -11891,10 +11891,10 @@
         <v>0</v>
       </c>
       <c r="M250">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N250">
-        <v>13.948</v>
+        <v>10.461</v>
       </c>
     </row>
     <row r="251" spans="1:14">
@@ -11935,10 +11935,10 @@
         <v>0</v>
       </c>
       <c r="M251">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N251">
-        <v>13.948</v>
+        <v>10.461</v>
       </c>
     </row>
     <row r="252" spans="1:14">
@@ -11979,10 +11979,10 @@
         <v>0</v>
       </c>
       <c r="M252">
-        <v>0.4</v>
+        <v>65</v>
       </c>
       <c r="N252">
-        <v>0.068</v>
+        <v>65</v>
       </c>
     </row>
     <row r="253" spans="1:14">
@@ -12023,10 +12023,10 @@
         <v>0</v>
       </c>
       <c r="M253">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N253">
-        <v>12.8</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="254" spans="1:14">
@@ -12067,10 +12067,10 @@
         <v>0</v>
       </c>
       <c r="M254">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N254">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="255" spans="1:14">
@@ -12111,10 +12111,10 @@
         <v>0</v>
       </c>
       <c r="M255">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N255">
-        <v>12.8</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="256" spans="1:14">
@@ -12155,10 +12155,10 @@
         <v>0</v>
       </c>
       <c r="M256">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N256">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="257" spans="1:14">
@@ -12199,10 +12199,10 @@
         <v>0</v>
       </c>
       <c r="M257">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N257">
-        <v>12.8</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="258" spans="1:14">
@@ -12243,10 +12243,10 @@
         <v>0</v>
       </c>
       <c r="M258">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N258">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="259" spans="1:14">
@@ -12287,10 +12287,10 @@
         <v>0</v>
       </c>
       <c r="M259">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N259">
-        <v>16.5</v>
+        <v>12.375</v>
       </c>
     </row>
     <row r="260" spans="1:14">
@@ -12331,10 +12331,10 @@
         <v>0</v>
       </c>
       <c r="M260">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N260">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="261" spans="1:14">
@@ -12375,10 +12375,10 @@
         <v>0</v>
       </c>
       <c r="M261">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N261">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="262" spans="1:14">
@@ -12419,10 +12419,10 @@
         <v>0</v>
       </c>
       <c r="M262">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N262">
-        <v>14.148</v>
+        <v>10.611</v>
       </c>
     </row>
     <row r="263" spans="1:14">
@@ -12463,10 +12463,10 @@
         <v>0</v>
       </c>
       <c r="M263">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N263">
-        <v>1.304</v>
+        <v>0.9779999999999999</v>
       </c>
     </row>
     <row r="264" spans="1:14">
@@ -12551,10 +12551,10 @@
         <v>0</v>
       </c>
       <c r="M265">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N265">
-        <v>12.8</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="266" spans="1:14">
@@ -12595,10 +12595,10 @@
         <v>0</v>
       </c>
       <c r="M266">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N266">
-        <v>12.8</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="267" spans="1:14">
@@ -12683,10 +12683,10 @@
         <v>0</v>
       </c>
       <c r="M268">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N268">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="269" spans="1:14">
@@ -12727,10 +12727,10 @@
         <v>0</v>
       </c>
       <c r="M269">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N269">
-        <v>12.8</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="270" spans="1:14">
@@ -12771,10 +12771,10 @@
         <v>0</v>
       </c>
       <c r="M270">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N270">
-        <v>12.8</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="271" spans="1:14">
@@ -12815,10 +12815,10 @@
         <v>0</v>
       </c>
       <c r="M271">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N271">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="272" spans="1:14">
@@ -12859,10 +12859,10 @@
         <v>0</v>
       </c>
       <c r="M272">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N272">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="273" spans="1:14">
@@ -12903,10 +12903,10 @@
         <v>0</v>
       </c>
       <c r="M273">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N273">
-        <v>7.744</v>
+        <v>5.808</v>
       </c>
     </row>
     <row r="274" spans="1:14">
@@ -12991,10 +12991,10 @@
         <v>0</v>
       </c>
       <c r="M275">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N275">
-        <v>17.28</v>
+        <v>12.96</v>
       </c>
     </row>
     <row r="276" spans="1:14">
@@ -13079,10 +13079,10 @@
         <v>0</v>
       </c>
       <c r="M277">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N277">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="278" spans="1:14">
@@ -13123,10 +13123,10 @@
         <v>0</v>
       </c>
       <c r="M278">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N278">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="279" spans="1:14">
@@ -13167,10 +13167,10 @@
         <v>0</v>
       </c>
       <c r="M279">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N279">
-        <v>12.8</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="280" spans="1:14">
@@ -13211,10 +13211,10 @@
         <v>0</v>
       </c>
       <c r="M280">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N280">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="281" spans="1:14">
@@ -13255,10 +13255,10 @@
         <v>0</v>
       </c>
       <c r="M281">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N281">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="282" spans="1:14">
@@ -13387,10 +13387,10 @@
         <v>0</v>
       </c>
       <c r="M284">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N284">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="285" spans="1:14">
@@ -13519,10 +13519,10 @@
         <v>0</v>
       </c>
       <c r="M287">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N287">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="288" spans="1:14">
@@ -13607,10 +13607,10 @@
         <v>0</v>
       </c>
       <c r="M289">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N289">
-        <v>16.5</v>
+        <v>12.375</v>
       </c>
     </row>
     <row r="290" spans="1:14">
@@ -13651,10 +13651,10 @@
         <v>0</v>
       </c>
       <c r="M290">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N290">
-        <v>16.5</v>
+        <v>12.375</v>
       </c>
     </row>
     <row r="291" spans="1:14">
@@ -13695,10 +13695,10 @@
         <v>0</v>
       </c>
       <c r="M291">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N291">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="292" spans="1:14">
@@ -13739,10 +13739,10 @@
         <v>0</v>
       </c>
       <c r="M292">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N292">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="293" spans="1:14">
@@ -13783,10 +13783,10 @@
         <v>0</v>
       </c>
       <c r="M293">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N293">
-        <v>16.5</v>
+        <v>12.375</v>
       </c>
     </row>
     <row r="294" spans="1:14">
@@ -13827,10 +13827,10 @@
         <v>0</v>
       </c>
       <c r="M294">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N294">
-        <v>16.5</v>
+        <v>12.375</v>
       </c>
     </row>
     <row r="295" spans="1:14">
@@ -13871,10 +13871,10 @@
         <v>0</v>
       </c>
       <c r="M295">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N295">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="296" spans="1:14">
@@ -13915,10 +13915,10 @@
         <v>0</v>
       </c>
       <c r="M296">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N296">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="297" spans="1:14">
@@ -13959,10 +13959,10 @@
         <v>0</v>
       </c>
       <c r="M297">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N297">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="298" spans="1:14">
@@ -14003,10 +14003,10 @@
         <v>0</v>
       </c>
       <c r="M298">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N298">
-        <v>12.8</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="299" spans="1:14">
@@ -14047,10 +14047,10 @@
         <v>0</v>
       </c>
       <c r="M299">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N299">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="300" spans="1:14">
@@ -14091,10 +14091,10 @@
         <v>0</v>
       </c>
       <c r="M300">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N300">
-        <v>16.5</v>
+        <v>12.375</v>
       </c>
     </row>
     <row r="301" spans="1:14">
@@ -14135,10 +14135,10 @@
         <v>0</v>
       </c>
       <c r="M301">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N301">
-        <v>16.5</v>
+        <v>12.375</v>
       </c>
     </row>
     <row r="302" spans="1:14">
@@ -14179,10 +14179,10 @@
         <v>0</v>
       </c>
       <c r="M302">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N302">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="303" spans="1:14">
@@ -14223,10 +14223,10 @@
         <v>0</v>
       </c>
       <c r="M303">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N303">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="304" spans="1:14">
@@ -14267,10 +14267,10 @@
         <v>0</v>
       </c>
       <c r="M304">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N304">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="305" spans="1:14">
@@ -14311,10 +14311,10 @@
         <v>0</v>
       </c>
       <c r="M305">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N305">
-        <v>12.8</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="306" spans="1:14">
@@ -14399,7 +14399,7 @@
         <v>0</v>
       </c>
       <c r="M307">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N307">
         <v>0</v>
@@ -14839,7 +14839,7 @@
         <v>0</v>
       </c>
       <c r="M317">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N317">
         <v>0</v>
@@ -15147,7 +15147,7 @@
         <v>0</v>
       </c>
       <c r="M324">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N324">
         <v>0</v>
@@ -15191,7 +15191,7 @@
         <v>0</v>
       </c>
       <c r="M325">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N325">
         <v>0</v>
@@ -15235,7 +15235,7 @@
         <v>0</v>
       </c>
       <c r="M326">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N326">
         <v>0</v>
@@ -15279,7 +15279,7 @@
         <v>0</v>
       </c>
       <c r="M327">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N327">
         <v>0</v>
@@ -15323,7 +15323,7 @@
         <v>0</v>
       </c>
       <c r="M328">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N328">
         <v>0</v>
@@ -15367,7 +15367,7 @@
         <v>0</v>
       </c>
       <c r="M329">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N329">
         <v>0</v>
@@ -15543,7 +15543,7 @@
         <v>0</v>
       </c>
       <c r="M333">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N333">
         <v>0</v>
@@ -15587,7 +15587,7 @@
         <v>0</v>
       </c>
       <c r="M334">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N334">
         <v>0</v>
@@ -15851,7 +15851,7 @@
         <v>0</v>
       </c>
       <c r="M340">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N340">
         <v>0</v>
@@ -15895,7 +15895,7 @@
         <v>0</v>
       </c>
       <c r="M341">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N341">
         <v>0</v>
@@ -15939,7 +15939,7 @@
         <v>0</v>
       </c>
       <c r="M342">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N342">
         <v>0</v>
@@ -16071,7 +16071,7 @@
         <v>0</v>
       </c>
       <c r="M345">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N345">
         <v>0</v>
@@ -16159,7 +16159,7 @@
         <v>0</v>
       </c>
       <c r="M347">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N347">
         <v>0</v>
@@ -16203,7 +16203,7 @@
         <v>0</v>
       </c>
       <c r="M348">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N348">
         <v>0</v>
@@ -16247,7 +16247,7 @@
         <v>0</v>
       </c>
       <c r="M349">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N349">
         <v>0</v>
@@ -16291,7 +16291,7 @@
         <v>0</v>
       </c>
       <c r="M350">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N350">
         <v>0</v>
@@ -16335,7 +16335,7 @@
         <v>0</v>
       </c>
       <c r="M351">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N351">
         <v>0</v>
@@ -16775,7 +16775,7 @@
         <v>0</v>
       </c>
       <c r="M361">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N361">
         <v>0</v>
@@ -16863,7 +16863,7 @@
         <v>0</v>
       </c>
       <c r="M363">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N363">
         <v>0</v>
@@ -16907,7 +16907,7 @@
         <v>0</v>
       </c>
       <c r="M364">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N364">
         <v>0</v>
@@ -17171,7 +17171,7 @@
         <v>0</v>
       </c>
       <c r="M370">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N370">
         <v>0</v>
@@ -17699,7 +17699,7 @@
         <v>0</v>
       </c>
       <c r="M382">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N382">
         <v>0</v>
@@ -17743,7 +17743,7 @@
         <v>0</v>
       </c>
       <c r="M383">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N383">
         <v>0</v>
@@ -17787,7 +17787,7 @@
         <v>0</v>
       </c>
       <c r="M384">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N384">
         <v>0</v>
@@ -17963,7 +17963,7 @@
         <v>0</v>
       </c>
       <c r="M388">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N388">
         <v>0</v>
@@ -18051,7 +18051,7 @@
         <v>0</v>
       </c>
       <c r="M390">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N390">
         <v>0</v>
@@ -18227,7 +18227,7 @@
         <v>0</v>
       </c>
       <c r="M394">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N394">
         <v>0</v>
